--- a/test_videos_with_labels/done/GX010095_labels.xlsx
+++ b/test_videos_with_labels/done/GX010095_labels.xlsx
@@ -5,13 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Desktop\Programmierung\Master\Machine Vision\Computer-Robot_Vision_repo\test_video_results_augmented_mobile\tests\GX010095\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Desktop\Programmierung\Master\Machine Vision\Computer-Robot_Vision_repo\test_videos_with_labels\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95C4280-7C1E-45CA-9C81-43BEBFFF7FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9278AC4-2432-460C-B9FF-908F8913C734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="3015" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="38400" yWindow="2640" windowWidth="28800" windowHeight="15435" xr2:uid="{6DB90D85-1B51-425A-BF9E-F1B146275295}"/>
+    <workbookView xWindow="38400" yWindow="2250" windowWidth="14400" windowHeight="15600" xr2:uid="{6DB90D85-1B51-425A-BF9E-F1B146275295}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -386,11 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1739" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1744" sqref="D1744"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="220" zoomScaleNormal="220" workbookViewId="1">
-      <selection activeCell="N6" sqref="J1:N6"/>
+    <sheetView tabSelected="1" topLeftCell="A1160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1171" sqref="C1171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9917,7 +9913,7 @@
         <v>1179</v>
       </c>
       <c r="B1180" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.25">
@@ -9925,7 +9921,7 @@
         <v>1180</v>
       </c>
       <c r="B1181" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.25">
@@ -9933,7 +9929,7 @@
         <v>1181</v>
       </c>
       <c r="B1182" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.25">
@@ -9941,7 +9937,7 @@
         <v>1182</v>
       </c>
       <c r="B1183" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.25">
@@ -9949,7 +9945,7 @@
         <v>1183</v>
       </c>
       <c r="B1184" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.25">
@@ -9957,7 +9953,7 @@
         <v>1184</v>
       </c>
       <c r="B1185" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.25">
